--- a/Code/Results/Cases/Case_7_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_49/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.74544474095701</v>
+        <v>13.50537979948913</v>
       </c>
       <c r="C2">
-        <v>14.99057596656465</v>
+        <v>7.207711086701181</v>
       </c>
       <c r="D2">
-        <v>4.881675937804041</v>
+        <v>7.49409222799228</v>
       </c>
       <c r="E2">
-        <v>9.834736177777033</v>
+        <v>11.02010549635985</v>
       </c>
       <c r="F2">
-        <v>34.78884448238767</v>
+        <v>23.952761030922</v>
       </c>
       <c r="G2">
-        <v>2.089367320390628</v>
+        <v>2.101640333697755</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.643975097849363</v>
+        <v>6.409327690904856</v>
       </c>
       <c r="K2">
-        <v>18.91464909868117</v>
+        <v>11.79021502287723</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.59047976145591</v>
+        <v>12.60530300476115</v>
       </c>
       <c r="O2">
-        <v>24.70488458234673</v>
+        <v>16.90988250286144</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.24958500605019</v>
+        <v>12.59272926785416</v>
       </c>
       <c r="C3">
-        <v>13.92683492938018</v>
+        <v>6.797326012320728</v>
       </c>
       <c r="D3">
-        <v>4.680465340651383</v>
+        <v>7.121665193312579</v>
       </c>
       <c r="E3">
-        <v>9.428209092883115</v>
+        <v>10.53896035361797</v>
       </c>
       <c r="F3">
-        <v>33.56626126688521</v>
+        <v>23.57469511209745</v>
       </c>
       <c r="G3">
-        <v>2.099088755212299</v>
+        <v>2.106524265863936</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.520831722867186</v>
+        <v>6.301521808073124</v>
       </c>
       <c r="K3">
-        <v>17.57532291120944</v>
+        <v>11.05132574508386</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.86284838925073</v>
+        <v>12.80994180675753</v>
       </c>
       <c r="O3">
-        <v>24.00066317495124</v>
+        <v>16.87038414349647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.34848314605158</v>
+        <v>11.99929866388301</v>
       </c>
       <c r="C4">
-        <v>13.23972487588068</v>
+        <v>6.532330908466697</v>
       </c>
       <c r="D4">
-        <v>4.554546058338317</v>
+        <v>6.885904319744145</v>
       </c>
       <c r="E4">
-        <v>9.177077068463319</v>
+        <v>10.23828883816993</v>
       </c>
       <c r="F4">
-        <v>32.83222428142732</v>
+        <v>23.35917853700065</v>
       </c>
       <c r="G4">
-        <v>2.105200527297984</v>
+        <v>2.109618676804781</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.448924783616347</v>
+        <v>6.237878469720236</v>
       </c>
       <c r="K4">
-        <v>16.72377227457275</v>
+        <v>10.572201927164</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.03293550618902</v>
+        <v>12.93835340593001</v>
       </c>
       <c r="O4">
-        <v>23.58614504125313</v>
+        <v>16.85952667123379</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.97227295648567</v>
+        <v>11.74910819471864</v>
       </c>
       <c r="C5">
-        <v>12.9510750820197</v>
+        <v>6.421105490342994</v>
       </c>
       <c r="D5">
-        <v>4.502701546862787</v>
+        <v>6.788170443410359</v>
       </c>
       <c r="E5">
-        <v>9.074476527255431</v>
+        <v>10.11462431914607</v>
       </c>
       <c r="F5">
-        <v>32.53749037449548</v>
+        <v>23.27552335501008</v>
       </c>
       <c r="G5">
-        <v>2.107729135220748</v>
+        <v>2.110904244081252</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.420547381719779</v>
+        <v>6.212600108836142</v>
       </c>
       <c r="K5">
-        <v>16.41050234056555</v>
+        <v>10.37056004973331</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.10300614560312</v>
+        <v>12.99139948218672</v>
       </c>
       <c r="O5">
-        <v>23.42173752901709</v>
+        <v>16.85835566934573</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.90926469051172</v>
+        <v>11.70705773481444</v>
       </c>
       <c r="C6">
-        <v>12.90261986140326</v>
+        <v>6.402442300117126</v>
       </c>
       <c r="D6">
-        <v>4.494062815112742</v>
+        <v>6.771845586889412</v>
       </c>
       <c r="E6">
-        <v>9.057427809866104</v>
+        <v>10.09402688795016</v>
       </c>
       <c r="F6">
-        <v>32.48882176823216</v>
+        <v>23.26188378001916</v>
       </c>
       <c r="G6">
-        <v>2.108151363282528</v>
+        <v>2.111119210195538</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.415891029862912</v>
+        <v>6.208442754302417</v>
       </c>
       <c r="K6">
-        <v>16.35806810483639</v>
+        <v>10.33669160025095</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.11468833437104</v>
+        <v>13.00025170970409</v>
       </c>
       <c r="O6">
-        <v>23.3947107180217</v>
+        <v>16.85835432924495</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.34344568640496</v>
+        <v>11.99595843328783</v>
       </c>
       <c r="C7">
-        <v>13.23586718707941</v>
+        <v>6.530843938143774</v>
       </c>
       <c r="D7">
-        <v>4.55384892289576</v>
+        <v>6.884592787551447</v>
       </c>
       <c r="E7">
-        <v>9.175694251198049</v>
+        <v>10.23662540913648</v>
       </c>
       <c r="F7">
-        <v>32.828231323034</v>
+        <v>23.35803347324252</v>
       </c>
       <c r="G7">
-        <v>2.105234472400972</v>
+        <v>2.10963591426443</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.448538338107121</v>
+        <v>6.237534877885189</v>
       </c>
       <c r="K7">
-        <v>16.71957542624957</v>
+        <v>10.5695083969008</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.03387737729029</v>
+        <v>12.93906587026659</v>
       </c>
       <c r="O7">
-        <v>23.58390949524588</v>
+        <v>16.85949785865607</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.22689458011591</v>
+        <v>13.19752925779827</v>
       </c>
       <c r="C8">
-        <v>14.6307819353131</v>
+        <v>7.068929920680206</v>
       </c>
       <c r="D8">
-        <v>4.812828146421556</v>
+        <v>7.367218479779171</v>
       </c>
       <c r="E8">
-        <v>9.694948573466178</v>
+        <v>10.85539702561014</v>
       </c>
       <c r="F8">
-        <v>34.3639638026001</v>
+        <v>23.81895344780087</v>
       </c>
       <c r="G8">
-        <v>2.092690958549626</v>
+        <v>2.10330477766971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.600743003950166</v>
+        <v>6.37163674689806</v>
       </c>
       <c r="K8">
-        <v>18.46172743647329</v>
+        <v>11.54072534069891</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.6838262704681</v>
+        <v>12.67530306899226</v>
       </c>
       <c r="O8">
-        <v>24.45836881246934</v>
+        <v>16.8934152083751</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.79131418664842</v>
+        <v>15.29377398269476</v>
       </c>
       <c r="C9">
-        <v>17.10194492338245</v>
+        <v>8.019800227232885</v>
       </c>
       <c r="D9">
-        <v>5.299426640562616</v>
+        <v>8.252971961332449</v>
       </c>
       <c r="E9">
-        <v>10.69679468239568</v>
+        <v>12.02039426043546</v>
       </c>
       <c r="F9">
-        <v>37.49994052018783</v>
+        <v>24.85449977718941</v>
       </c>
       <c r="G9">
-        <v>2.069121820837128</v>
+        <v>2.091623868749628</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.928904136457124</v>
+        <v>6.654109577041748</v>
       </c>
       <c r="K9">
-        <v>21.57079275841905</v>
+        <v>13.24376119708229</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.01802442410023</v>
+        <v>12.17889990978563</v>
       </c>
       <c r="O9">
-        <v>26.31458013963906</v>
+        <v>17.07119043081092</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.19165535891515</v>
+        <v>16.67859007412937</v>
       </c>
       <c r="C10">
-        <v>18.76454278898775</v>
+        <v>8.654051185501723</v>
       </c>
       <c r="D10">
-        <v>5.64141416947767</v>
+        <v>8.862056879080406</v>
       </c>
       <c r="E10">
-        <v>11.41854709083087</v>
+        <v>12.83929621259705</v>
       </c>
       <c r="F10">
-        <v>39.8730923969004</v>
+        <v>25.69475778090341</v>
       </c>
       <c r="G10">
-        <v>2.052272197410624</v>
+        <v>2.083453503028057</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.188666630263881</v>
+        <v>6.872525984867956</v>
       </c>
       <c r="K10">
-        <v>23.66023899907171</v>
+        <v>14.3731856727787</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.53856368427503</v>
+        <v>11.82528879938407</v>
       </c>
       <c r="O10">
-        <v>27.76516148651275</v>
+        <v>17.27620449527813</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.23873689710762</v>
+        <v>17.27557663928127</v>
       </c>
       <c r="C11">
-        <v>19.48972701512864</v>
+        <v>8.92859651058815</v>
       </c>
       <c r="D11">
-        <v>5.793269519935708</v>
+        <v>9.129410826426092</v>
       </c>
       <c r="E11">
-        <v>11.74331449324345</v>
+        <v>13.20262887388013</v>
       </c>
       <c r="F11">
-        <v>40.96751065946332</v>
+        <v>26.09394911676568</v>
       </c>
       <c r="G11">
-        <v>2.044667671235135</v>
+        <v>2.079817498604399</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.311078730229574</v>
+        <v>6.974042531761571</v>
       </c>
       <c r="K11">
-        <v>24.57097118114459</v>
+        <v>14.86089304985757</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.32189166595145</v>
+        <v>11.66645319086763</v>
       </c>
       <c r="O11">
-        <v>28.44457332274303</v>
+        <v>17.38695500052982</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.62903293530478</v>
+        <v>17.49695815097418</v>
       </c>
       <c r="C12">
-        <v>19.76004763398934</v>
+        <v>9.030554659939579</v>
       </c>
       <c r="D12">
-        <v>5.850220781232599</v>
+        <v>9.229212422359419</v>
       </c>
       <c r="E12">
-        <v>11.8657731742807</v>
+        <v>13.338819377098</v>
       </c>
       <c r="F12">
-        <v>41.38415187832347</v>
+        <v>26.24751797023633</v>
       </c>
       <c r="G12">
-        <v>2.041792902422012</v>
+        <v>2.07845150895677</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.358065043744215</v>
+        <v>7.012777749555273</v>
       </c>
       <c r="K12">
-        <v>24.91035250744541</v>
+        <v>15.04185974721967</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.23999456375055</v>
+        <v>11.60656423175045</v>
       </c>
       <c r="O12">
-        <v>28.70475864396562</v>
+        <v>17.43151104277348</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.54524782717963</v>
+        <v>17.44948708880947</v>
       </c>
       <c r="C13">
-        <v>19.70201688810285</v>
+        <v>9.008685262539277</v>
       </c>
       <c r="D13">
-        <v>5.837980111179145</v>
+        <v>9.207782932231428</v>
       </c>
       <c r="E13">
-        <v>11.83942273525616</v>
+        <v>13.30955138889492</v>
       </c>
       <c r="F13">
-        <v>41.2943204429431</v>
+        <v>26.21433780143698</v>
       </c>
       <c r="G13">
-        <v>2.04241188268983</v>
+        <v>2.07874522710673</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.347917203962168</v>
+        <v>7.004422649822688</v>
       </c>
       <c r="K13">
-        <v>24.83750113268062</v>
+        <v>15.00305011534487</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.25762669832502</v>
+        <v>11.61945142619663</v>
       </c>
       <c r="O13">
-        <v>28.64859172873865</v>
+        <v>17.42179711317765</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.27096979582288</v>
+        <v>17.29388337675764</v>
       </c>
       <c r="C14">
-        <v>19.51205130550253</v>
+        <v>8.937024837125803</v>
       </c>
       <c r="D14">
-        <v>5.797966094937354</v>
+        <v>9.137650613302206</v>
       </c>
       <c r="E14">
-        <v>11.75339972225429</v>
+        <v>13.213861684368</v>
       </c>
       <c r="F14">
-        <v>41.00174300086806</v>
+        <v>26.10653533838649</v>
       </c>
       <c r="G14">
-        <v>2.044431087419132</v>
+        <v>2.079704903942965</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.314931520841411</v>
+        <v>6.977223520595126</v>
       </c>
       <c r="K14">
-        <v>24.59900100305214</v>
+        <v>14.87585559563511</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.31515121562646</v>
+        <v>11.661521099758</v>
       </c>
       <c r="O14">
-        <v>28.4659199390975</v>
+        <v>17.39056762788205</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.10216529316359</v>
+        <v>17.19796329796915</v>
       </c>
       <c r="C15">
-        <v>19.39513900375338</v>
+        <v>8.892869686819477</v>
       </c>
       <c r="D15">
-        <v>5.773383922748</v>
+        <v>9.09450402723915</v>
       </c>
       <c r="E15">
-        <v>11.70063999348405</v>
+        <v>13.15506530838845</v>
       </c>
       <c r="F15">
-        <v>40.82282209956541</v>
+        <v>26.04081524697192</v>
       </c>
       <c r="G15">
-        <v>2.045668426458517</v>
+        <v>2.080294129187165</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.294809820818496</v>
+        <v>6.960600953216321</v>
       </c>
       <c r="K15">
-        <v>24.45220450454113</v>
+        <v>14.7974621693967</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.35040477902215</v>
+        <v>11.68732267452229</v>
       </c>
       <c r="O15">
-        <v>28.35441045477032</v>
+        <v>17.37178247561707</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.12234335697041</v>
+        <v>16.63891693818745</v>
       </c>
       <c r="C16">
-        <v>18.71653919681315</v>
+        <v>8.635827940862278</v>
       </c>
       <c r="D16">
-        <v>5.631413490601489</v>
+        <v>8.844385233866054</v>
       </c>
       <c r="E16">
-        <v>11.39724960230294</v>
+        <v>12.81535990627261</v>
       </c>
       <c r="F16">
-        <v>39.80187285745706</v>
+        <v>25.66900792373541</v>
       </c>
       <c r="G16">
-        <v>2.052770073425901</v>
+        <v>2.083692688267853</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.180753782979663</v>
+        <v>6.865933560981631</v>
       </c>
       <c r="K16">
-        <v>23.5999390192366</v>
+        <v>14.34079080549439</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.55274797502192</v>
+        <v>11.83570708406809</v>
       </c>
       <c r="O16">
-        <v>27.72116071804443</v>
+        <v>17.26932745148282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.50992821197968</v>
+        <v>16.28755498384167</v>
       </c>
       <c r="C17">
-        <v>18.29239120598998</v>
+        <v>8.474562124491635</v>
       </c>
       <c r="D17">
-        <v>5.543351357921656</v>
+        <v>8.688422295068229</v>
       </c>
       <c r="E17">
-        <v>11.210201817895</v>
+        <v>12.60454955288362</v>
       </c>
       <c r="F17">
-        <v>39.17938470671169</v>
+        <v>25.44523427602695</v>
       </c>
       <c r="G17">
-        <v>2.057139626024412</v>
+        <v>2.085797771936905</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.111884299084645</v>
+        <v>6.808398217012972</v>
       </c>
       <c r="K17">
-        <v>23.06706947928744</v>
+        <v>14.05398092937858</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.67720849345036</v>
+        <v>11.92723208012336</v>
       </c>
       <c r="O17">
-        <v>27.33774114626803</v>
+        <v>17.21102802620699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.15344618818092</v>
+        <v>16.08235376208368</v>
       </c>
       <c r="C18">
-        <v>18.04548912737761</v>
+        <v>8.380489997299254</v>
       </c>
       <c r="D18">
-        <v>5.492351100677189</v>
+        <v>8.597803195148259</v>
       </c>
       <c r="E18">
-        <v>11.10228094293142</v>
+        <v>12.48243529845244</v>
       </c>
       <c r="F18">
-        <v>38.82273550194593</v>
+        <v>25.31812352489381</v>
       </c>
       <c r="G18">
-        <v>2.059658818888623</v>
+        <v>2.087016205532845</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.072670325438751</v>
+        <v>6.77550947554284</v>
       </c>
       <c r="K18">
-        <v>22.7568191336413</v>
+        <v>13.88655912114097</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.7489335315894</v>
+        <v>11.98006739212617</v>
       </c>
       <c r="O18">
-        <v>27.11903870681151</v>
+        <v>17.17913598985195</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.03201302021342</v>
+        <v>16.01234079110967</v>
       </c>
       <c r="C19">
-        <v>17.96138143179159</v>
+        <v>8.34841267694839</v>
       </c>
       <c r="D19">
-        <v>5.475024014701288</v>
+        <v>8.566965708143989</v>
       </c>
       <c r="E19">
-        <v>11.06568381703308</v>
+        <v>12.44094405508263</v>
       </c>
       <c r="F19">
-        <v>38.70221801487387</v>
+        <v>25.27536149067657</v>
       </c>
       <c r="G19">
-        <v>2.060512903229449</v>
+        <v>2.087430080586693</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.059460955303821</v>
+        <v>6.764409506540722</v>
       </c>
       <c r="K19">
-        <v>22.65112178689225</v>
+        <v>13.82945019410924</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.77324385609556</v>
+        <v>11.99799054544999</v>
       </c>
       <c r="O19">
-        <v>27.04530195208811</v>
+        <v>17.16861642113316</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.57555773793018</v>
+        <v>16.32527923026586</v>
       </c>
       <c r="C20">
-        <v>18.33784582231845</v>
+        <v>8.491865364362685</v>
       </c>
       <c r="D20">
-        <v>5.552762030330848</v>
+        <v>8.705119679966549</v>
       </c>
       <c r="E20">
-        <v>11.23014829851758</v>
+        <v>12.62708045129507</v>
       </c>
       <c r="F20">
-        <v>39.24550556754664</v>
+        <v>25.4688902303547</v>
       </c>
       <c r="G20">
-        <v>2.056673890798109</v>
+        <v>2.085572896039936</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.119174256932641</v>
+        <v>6.814501961303715</v>
       </c>
       <c r="K20">
-        <v>23.12418171957591</v>
+        <v>14.08476633662947</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.66394550286237</v>
+        <v>11.91746938730264</v>
       </c>
       <c r="O20">
-        <v>27.37836681947021</v>
+        <v>17.21706358496472</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.35169842276474</v>
+        <v>17.33971462590888</v>
       </c>
       <c r="C21">
-        <v>19.56796366144203</v>
+        <v>8.958127634483997</v>
       </c>
       <c r="D21">
-        <v>5.809734297424132</v>
+        <v>9.158289520829223</v>
       </c>
       <c r="E21">
-        <v>11.77868095680185</v>
+        <v>13.24200645517138</v>
       </c>
       <c r="F21">
-        <v>41.08761914608657</v>
+        <v>26.13813456830043</v>
       </c>
       <c r="G21">
-        <v>2.043837897549863</v>
+        <v>2.079422734134459</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.324602874350114</v>
+        <v>6.985204739337529</v>
       </c>
       <c r="K21">
-        <v>24.66920144154922</v>
+        <v>14.91331632622951</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.29825119022365</v>
+        <v>11.64915746617488</v>
       </c>
       <c r="O21">
-        <v>28.51949516579091</v>
+        <v>17.39966865824475</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.47643913688055</v>
+        <v>17.97543073868238</v>
       </c>
       <c r="C22">
-        <v>20.34700858209579</v>
+        <v>9.251168320033038</v>
       </c>
       <c r="D22">
-        <v>5.974454268096622</v>
+        <v>9.446059686226778</v>
       </c>
       <c r="E22">
-        <v>12.1341375259643</v>
+        <v>13.63573840319226</v>
       </c>
       <c r="F22">
-        <v>42.3045175214137</v>
+        <v>26.58952037223599</v>
       </c>
       <c r="G22">
-        <v>2.03547529324528</v>
+        <v>2.075466332253727</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.462558305370533</v>
+        <v>7.098470439853218</v>
       </c>
       <c r="K22">
-        <v>25.64706511604264</v>
+        <v>15.43317094448952</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.06010810967271</v>
+        <v>11.47529106788003</v>
       </c>
       <c r="O22">
-        <v>29.28231305801213</v>
+        <v>17.5343114862102</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.87935765737184</v>
+        <v>17.63861347129208</v>
       </c>
       <c r="C23">
-        <v>19.93342933054097</v>
+        <v>9.095834014960282</v>
       </c>
       <c r="D23">
-        <v>5.886839258835117</v>
+        <v>9.29325110709263</v>
       </c>
       <c r="E23">
-        <v>11.94469972867968</v>
+        <v>13.42636282924326</v>
       </c>
       <c r="F23">
-        <v>41.65380273403096</v>
+        <v>26.34733771080798</v>
       </c>
       <c r="G23">
-        <v>2.039937527430072</v>
+        <v>2.077572417318451</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.388581876982308</v>
+        <v>7.037868000094607</v>
       </c>
       <c r="K23">
-        <v>25.12799849834042</v>
+        <v>15.15768417497046</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.18714927020958</v>
+        <v>11.56796167969633</v>
       </c>
       <c r="O23">
-        <v>28.87357986734931</v>
+        <v>17.46101736133821</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.5459003406387</v>
+        <v>16.30823406554236</v>
       </c>
       <c r="C24">
-        <v>18.31730531587818</v>
+        <v>8.484046800539373</v>
       </c>
       <c r="D24">
-        <v>5.548508623022916</v>
+        <v>8.697573760257853</v>
       </c>
       <c r="E24">
-        <v>11.22113169143231</v>
+        <v>12.6168970812272</v>
       </c>
       <c r="F24">
-        <v>39.21560850719383</v>
+        <v>25.4581905749608</v>
       </c>
       <c r="G24">
-        <v>2.056884427363996</v>
+        <v>2.08567453685947</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.115877284839627</v>
+        <v>6.811741868199261</v>
       </c>
       <c r="K24">
-        <v>23.09837342934294</v>
+        <v>14.07085613984058</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.66994116406569</v>
+        <v>11.92188242435082</v>
       </c>
       <c r="O24">
-        <v>27.35999456896571</v>
+        <v>17.21432985489339</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.8661778354976</v>
+        <v>14.75419347630309</v>
       </c>
       <c r="C25">
-        <v>16.4609292396615</v>
+        <v>7.773839164215763</v>
       </c>
       <c r="D25">
-        <v>5.170363670232229</v>
+        <v>8.020393357906924</v>
       </c>
       <c r="E25">
-        <v>10.42804803760568</v>
+        <v>11.71127115562867</v>
       </c>
       <c r="F25">
-        <v>36.63913870374495</v>
+        <v>24.56031322891021</v>
       </c>
       <c r="G25">
-        <v>2.075403371583799</v>
+        <v>2.09470885195599</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.836899571396899</v>
+        <v>6.575708512329975</v>
       </c>
       <c r="K25">
-        <v>20.76469503341989</v>
+        <v>12.80453398168818</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.19622111443351</v>
+        <v>12.31111984506822</v>
       </c>
       <c r="O25">
-        <v>25.79729297517422</v>
+        <v>17.01049321452809</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.50537979948913</v>
+        <v>12.85278532022613</v>
       </c>
       <c r="C2">
-        <v>7.207711086701181</v>
+        <v>7.339552173366563</v>
       </c>
       <c r="D2">
-        <v>7.49409222799228</v>
+        <v>8.753494253210681</v>
       </c>
       <c r="E2">
-        <v>11.02010549635985</v>
+        <v>12.5044817681277</v>
       </c>
       <c r="F2">
-        <v>23.952761030922</v>
+        <v>20.99557687819891</v>
       </c>
       <c r="G2">
-        <v>2.101640333697755</v>
+        <v>21.14309496319853</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.682971236282172</v>
       </c>
       <c r="J2">
-        <v>6.409327690904856</v>
+        <v>8.767991931896979</v>
       </c>
       <c r="K2">
-        <v>11.79021502287723</v>
+        <v>12.7154043705408</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.219863069914066</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.53513202387441</v>
       </c>
       <c r="N2">
-        <v>12.60530300476115</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.90988250286144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.05111702282923</v>
+      </c>
+      <c r="Q2">
+        <v>14.10759870430419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.59272926785416</v>
+        <v>12.04387123878968</v>
       </c>
       <c r="C3">
-        <v>6.797326012320728</v>
+        <v>6.92524375461515</v>
       </c>
       <c r="D3">
-        <v>7.121665193312579</v>
+        <v>8.336000838669559</v>
       </c>
       <c r="E3">
-        <v>10.53896035361797</v>
+        <v>11.94546344720423</v>
       </c>
       <c r="F3">
-        <v>23.57469511209745</v>
+        <v>20.63406556800305</v>
       </c>
       <c r="G3">
-        <v>2.106524265863936</v>
+        <v>20.84772624353464</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.637391399502129</v>
       </c>
       <c r="J3">
-        <v>6.301521808073124</v>
+        <v>8.799927777186317</v>
       </c>
       <c r="K3">
-        <v>11.05132574508386</v>
+        <v>12.83155726142319</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.028576315391385</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.88268267073828</v>
       </c>
       <c r="N3">
-        <v>12.80994180675753</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.87038414349647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.17910898806269</v>
+      </c>
+      <c r="Q3">
+        <v>14.08787963851351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.99929866388301</v>
+        <v>11.5178636633464</v>
       </c>
       <c r="C4">
-        <v>6.532330908466697</v>
+        <v>6.657508025438719</v>
       </c>
       <c r="D4">
-        <v>6.885904319744145</v>
+        <v>8.069392920249856</v>
       </c>
       <c r="E4">
-        <v>10.23828883816993</v>
+        <v>11.58854969354807</v>
       </c>
       <c r="F4">
-        <v>23.35917853700065</v>
+        <v>20.418471017961</v>
       </c>
       <c r="G4">
-        <v>2.109618676804781</v>
+        <v>20.67977592050512</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.76635506594466</v>
       </c>
       <c r="J4">
-        <v>6.237878469720236</v>
+        <v>8.822985035145818</v>
       </c>
       <c r="K4">
-        <v>10.572201927164</v>
+        <v>12.90926940559161</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.907890536772367</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.46067581443474</v>
       </c>
       <c r="N4">
-        <v>12.93835340593001</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.85952667123379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.25989609312864</v>
+      </c>
+      <c r="Q4">
+        <v>14.08329384993662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.74910819471864</v>
+        <v>11.29614451464982</v>
       </c>
       <c r="C5">
-        <v>6.421105490342994</v>
+        <v>6.545099072366586</v>
       </c>
       <c r="D5">
-        <v>6.788170443410359</v>
+        <v>7.958276573554186</v>
       </c>
       <c r="E5">
-        <v>10.11462431914607</v>
+        <v>11.43979657829107</v>
       </c>
       <c r="F5">
-        <v>23.27552335501008</v>
+        <v>20.33227937184346</v>
       </c>
       <c r="G5">
-        <v>2.110904244081252</v>
+        <v>20.6146897371484</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.820123060905665</v>
       </c>
       <c r="J5">
-        <v>6.212600108836142</v>
+        <v>8.833226412381306</v>
       </c>
       <c r="K5">
-        <v>10.37056004973331</v>
+        <v>12.9424969271015</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.857933807921334</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.28339158215191</v>
       </c>
       <c r="N5">
-        <v>12.99139948218672</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.85835566934573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.29337505543445</v>
+      </c>
+      <c r="Q5">
+        <v>14.08326439864712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.70705773481444</v>
+        <v>11.25888372066482</v>
       </c>
       <c r="C6">
-        <v>6.402442300117126</v>
+        <v>6.526235852137057</v>
       </c>
       <c r="D6">
-        <v>6.771845586889412</v>
+        <v>7.939680088166148</v>
       </c>
       <c r="E6">
-        <v>10.09402688795016</v>
+        <v>11.414900673336</v>
       </c>
       <c r="F6">
-        <v>23.26188378001916</v>
+        <v>20.3180695947291</v>
       </c>
       <c r="G6">
-        <v>2.111119210195538</v>
+        <v>20.60408415198583</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.829124932598628</v>
       </c>
       <c r="J6">
-        <v>6.208442754302417</v>
+        <v>8.834977416076121</v>
       </c>
       <c r="K6">
-        <v>10.33669160025095</v>
+        <v>12.94810713186541</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.849592787249685</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.25363513094258</v>
       </c>
       <c r="N6">
-        <v>13.00025170970409</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.85835432924495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.29896801922877</v>
+      </c>
+      <c r="Q6">
+        <v>14.08336905329002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99595843328783</v>
+        <v>11.514903291187</v>
       </c>
       <c r="C7">
-        <v>6.530843938143774</v>
+        <v>6.656005340250394</v>
       </c>
       <c r="D7">
-        <v>6.884592787551447</v>
+        <v>8.067904214690401</v>
       </c>
       <c r="E7">
-        <v>10.23662540913648</v>
+        <v>11.58655676274852</v>
       </c>
       <c r="F7">
-        <v>23.35803347324252</v>
+        <v>20.41730178752575</v>
       </c>
       <c r="G7">
-        <v>2.10963591426443</v>
+        <v>20.67888459151799</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.76707526532355</v>
       </c>
       <c r="J7">
-        <v>6.237534877885189</v>
+        <v>8.823119759501447</v>
       </c>
       <c r="K7">
-        <v>10.5695083969008</v>
+        <v>12.90971127274184</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.907219894845401</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.45830630612969</v>
       </c>
       <c r="N7">
-        <v>12.93906587026659</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.85949785865607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.26034533858356</v>
+      </c>
+      <c r="Q7">
+        <v>14.08328607511272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.19752925779827</v>
+        <v>12.57996188341725</v>
       </c>
       <c r="C8">
-        <v>7.068929920680206</v>
+        <v>7.199496584476083</v>
       </c>
       <c r="D8">
-        <v>7.367218479779171</v>
+        <v>8.611733489248612</v>
       </c>
       <c r="E8">
-        <v>10.85539702561014</v>
+        <v>12.31464248610083</v>
       </c>
       <c r="F8">
-        <v>23.81895344780087</v>
+        <v>20.86964294607736</v>
       </c>
       <c r="G8">
-        <v>2.10330477766971</v>
+        <v>21.03846267539319</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.61587300772066</v>
       </c>
       <c r="J8">
-        <v>6.37163674689806</v>
+        <v>8.778274383390418</v>
       </c>
       <c r="K8">
-        <v>11.54072534069891</v>
+        <v>12.75409683071298</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.154600187561131</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.31464471547879</v>
       </c>
       <c r="N8">
-        <v>12.67530306899226</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.8934152083751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.09479483022967</v>
+      </c>
+      <c r="Q8">
+        <v>14.09920739787636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.29377398269476</v>
+        <v>14.43586418733292</v>
       </c>
       <c r="C9">
-        <v>8.019800227232885</v>
+        <v>8.157672043220742</v>
       </c>
       <c r="D9">
-        <v>8.252971961332449</v>
+        <v>9.592772029876977</v>
       </c>
       <c r="E9">
-        <v>12.02039426043546</v>
+        <v>13.62917044181827</v>
       </c>
       <c r="F9">
-        <v>24.85449977718941</v>
+        <v>21.80439876573489</v>
       </c>
       <c r="G9">
-        <v>2.091623868749628</v>
+        <v>21.85018626311098</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.083199084416708</v>
       </c>
       <c r="J9">
-        <v>6.654109577041748</v>
+        <v>8.718700481924651</v>
       </c>
       <c r="K9">
-        <v>13.24376119708229</v>
+        <v>12.50198065768966</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.612566989930607</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.82195351684349</v>
       </c>
       <c r="N9">
-        <v>12.17889990978563</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.07119043081092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.78739875180522</v>
+      </c>
+      <c r="Q9">
+        <v>14.19238487459504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.67859007412937</v>
+        <v>15.63955969844664</v>
       </c>
       <c r="C10">
-        <v>8.654051185501723</v>
+        <v>8.762013833599367</v>
       </c>
       <c r="D10">
-        <v>8.862056879080406</v>
+        <v>10.15566633854209</v>
       </c>
       <c r="E10">
-        <v>12.83929621259705</v>
+        <v>14.28858577824618</v>
       </c>
       <c r="F10">
-        <v>25.69475778090341</v>
+        <v>22.37860219495109</v>
       </c>
       <c r="G10">
-        <v>2.083453503028057</v>
+        <v>22.37849797526517</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.392841896761287</v>
       </c>
       <c r="J10">
-        <v>6.872525984867956</v>
+        <v>8.672964791243194</v>
       </c>
       <c r="K10">
-        <v>14.3731856727787</v>
+        <v>12.31984938180616</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.823545378518213</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.79994720456503</v>
       </c>
       <c r="N10">
-        <v>11.82528879938407</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.27620449527813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.5773102979943</v>
+      </c>
+      <c r="Q10">
+        <v>14.24755494384063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27557663928127</v>
+        <v>15.99895713092504</v>
       </c>
       <c r="C11">
-        <v>8.92859651058815</v>
+        <v>8.746212473440904</v>
       </c>
       <c r="D11">
-        <v>9.129410826426092</v>
+        <v>9.529383794602891</v>
       </c>
       <c r="E11">
-        <v>13.20262887388013</v>
+        <v>12.61050011335015</v>
       </c>
       <c r="F11">
-        <v>26.09394911676568</v>
+        <v>21.4528003348292</v>
       </c>
       <c r="G11">
-        <v>2.079817498604399</v>
+        <v>21.48038719328494</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.153590586816724</v>
       </c>
       <c r="J11">
-        <v>6.974042531761571</v>
+        <v>8.475710960489208</v>
       </c>
       <c r="K11">
-        <v>14.86089304985757</v>
+        <v>11.96144991372309</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.044755202667939</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.02900412282638</v>
       </c>
       <c r="N11">
-        <v>11.66645319086763</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.38695500052982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.53873389400485</v>
+      </c>
+      <c r="Q11">
+        <v>13.81058903660436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.49695815097418</v>
+        <v>16.05719456798934</v>
       </c>
       <c r="C12">
-        <v>9.030554659939579</v>
+        <v>8.609483891420695</v>
       </c>
       <c r="D12">
-        <v>9.229212422359419</v>
+        <v>8.878319155378504</v>
       </c>
       <c r="E12">
-        <v>13.338819377098</v>
+        <v>11.09566481277358</v>
       </c>
       <c r="F12">
-        <v>26.24751797023633</v>
+        <v>20.5350128181024</v>
       </c>
       <c r="G12">
-        <v>2.07845150895677</v>
+        <v>20.58805702624257</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.331808743544851</v>
       </c>
       <c r="J12">
-        <v>7.012777749555273</v>
+        <v>8.315047342479682</v>
       </c>
       <c r="K12">
-        <v>15.04185974721967</v>
+        <v>11.69338992410719</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.427078581300639</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.02292155606713</v>
       </c>
       <c r="N12">
-        <v>11.60656423175045</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.43151104277348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.5574871729431</v>
+      </c>
+      <c r="Q12">
+        <v>13.4208064168107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.44948708880947</v>
+        <v>15.88962884210034</v>
       </c>
       <c r="C13">
-        <v>9.008685262539277</v>
+        <v>8.367949048739055</v>
       </c>
       <c r="D13">
-        <v>9.207782932231428</v>
+        <v>8.152975186546776</v>
       </c>
       <c r="E13">
-        <v>13.30955138889492</v>
+        <v>9.608989886519495</v>
       </c>
       <c r="F13">
-        <v>26.21433780143698</v>
+        <v>19.55773134925186</v>
       </c>
       <c r="G13">
-        <v>2.07874522710673</v>
+        <v>19.63337410186657</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.609599933281324</v>
       </c>
       <c r="J13">
-        <v>7.004422649822688</v>
+        <v>8.172852259413842</v>
       </c>
       <c r="K13">
-        <v>15.00305011534487</v>
+        <v>11.47957353046286</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.916284620291929</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.83588170231027</v>
       </c>
       <c r="N13">
-        <v>11.61945142619663</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.42179711317765</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.61811368663849</v>
+      </c>
+      <c r="Q13">
+        <v>13.04238494032002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.29388337675764</v>
+        <v>15.66793940385331</v>
       </c>
       <c r="C14">
-        <v>8.937024837125803</v>
+        <v>8.148788307166607</v>
       </c>
       <c r="D14">
-        <v>9.137650613302206</v>
+        <v>7.605105516132527</v>
       </c>
       <c r="E14">
-        <v>13.213861684368</v>
+        <v>8.606821590854276</v>
       </c>
       <c r="F14">
-        <v>26.10653533838649</v>
+        <v>18.84615543712238</v>
       </c>
       <c r="G14">
-        <v>2.079704903942965</v>
+        <v>18.93537434305441</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.537460770462679</v>
       </c>
       <c r="J14">
-        <v>6.977223520595126</v>
+        <v>8.082487858074149</v>
       </c>
       <c r="K14">
-        <v>14.87585559563511</v>
+        <v>11.35666106231347</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.639355643194665</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.62090896320123</v>
       </c>
       <c r="N14">
-        <v>11.661521099758</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.39056762788205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.67894923437834</v>
+      </c>
+      <c r="Q14">
+        <v>12.78426093505894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.19796329796915</v>
+        <v>15.56469261658202</v>
       </c>
       <c r="C15">
-        <v>8.892869686819477</v>
+        <v>8.072067174610115</v>
       </c>
       <c r="D15">
-        <v>9.09450402723915</v>
+        <v>7.454989089289884</v>
       </c>
       <c r="E15">
-        <v>13.15506530838845</v>
+        <v>8.365111926795377</v>
       </c>
       <c r="F15">
-        <v>26.04081524697192</v>
+        <v>18.66253693068099</v>
       </c>
       <c r="G15">
-        <v>2.080294129187165</v>
+        <v>18.75528853187637</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.749119114298541</v>
       </c>
       <c r="J15">
-        <v>6.960600953216321</v>
+        <v>8.065134813616185</v>
       </c>
       <c r="K15">
-        <v>14.7974621693967</v>
+        <v>11.33923850206792</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.583698475375046</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.52895313562787</v>
       </c>
       <c r="N15">
-        <v>11.68732267452229</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.37178247561707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.70130641843353</v>
+      </c>
+      <c r="Q15">
+        <v>12.725552808588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.63891693818745</v>
+        <v>15.09517139888623</v>
       </c>
       <c r="C16">
-        <v>8.635827940862278</v>
+        <v>7.855797642421036</v>
       </c>
       <c r="D16">
-        <v>8.844385233866054</v>
+        <v>7.322849008386554</v>
       </c>
       <c r="E16">
-        <v>12.81535990627261</v>
+        <v>8.314637829409202</v>
       </c>
       <c r="F16">
-        <v>25.66900792373541</v>
+        <v>18.59354164597961</v>
       </c>
       <c r="G16">
-        <v>2.083692688267853</v>
+        <v>18.69520174530233</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.482229146284739</v>
       </c>
       <c r="J16">
-        <v>6.865933560981631</v>
+        <v>8.113326873163301</v>
       </c>
       <c r="K16">
-        <v>14.34079080549439</v>
+        <v>11.46159707767311</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.583662976748246</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.15342739716441</v>
       </c>
       <c r="N16">
-        <v>11.83570708406809</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.26932745148282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.76980714824833</v>
+      </c>
+      <c r="Q16">
+        <v>12.77568611271744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.28755498384167</v>
+        <v>14.85079770410171</v>
       </c>
       <c r="C17">
-        <v>8.474562124491635</v>
+        <v>7.808526635662218</v>
       </c>
       <c r="D17">
-        <v>8.688422295068229</v>
+        <v>7.522604773943751</v>
       </c>
       <c r="E17">
-        <v>12.60454955288362</v>
+        <v>8.803748253222038</v>
       </c>
       <c r="F17">
-        <v>25.44523427602695</v>
+        <v>18.92440070332809</v>
       </c>
       <c r="G17">
-        <v>2.085797771936905</v>
+        <v>19.02809360760694</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.736052866003485</v>
       </c>
       <c r="J17">
-        <v>6.808398217012972</v>
+        <v>8.198497698957494</v>
       </c>
       <c r="K17">
-        <v>14.05398092937858</v>
+        <v>11.62033242183685</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.715940579316571</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.97904348633331</v>
       </c>
       <c r="N17">
-        <v>11.92723208012336</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.21102802620699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.79162745649129</v>
+      </c>
+      <c r="Q17">
+        <v>12.95224873451396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08235376208368</v>
+        <v>14.77989926710555</v>
       </c>
       <c r="C18">
-        <v>8.380489997299254</v>
+        <v>7.905787384555009</v>
       </c>
       <c r="D18">
-        <v>8.597803195148259</v>
+        <v>8.034826816999294</v>
       </c>
       <c r="E18">
-        <v>12.48243529845244</v>
+        <v>9.89225380007853</v>
       </c>
       <c r="F18">
-        <v>25.31812352489381</v>
+        <v>19.63478188481433</v>
       </c>
       <c r="G18">
-        <v>2.087016205532845</v>
+        <v>19.72851684324559</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.531894409889872</v>
       </c>
       <c r="J18">
-        <v>6.77550947554284</v>
+        <v>8.323960575601207</v>
       </c>
       <c r="K18">
-        <v>13.88655912114097</v>
+        <v>11.82777515959903</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.05715075533475</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.96400544152422</v>
       </c>
       <c r="N18">
-        <v>11.98006739212617</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.17913598985195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.77837517002718</v>
+      </c>
+      <c r="Q18">
+        <v>13.25472309423891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.01234079110967</v>
+        <v>14.85537589077186</v>
       </c>
       <c r="C19">
-        <v>8.34841267694839</v>
+        <v>8.112511048166816</v>
       </c>
       <c r="D19">
-        <v>8.566965708143989</v>
+        <v>8.757456558995012</v>
       </c>
       <c r="E19">
-        <v>12.44094405508263</v>
+        <v>11.45143496286084</v>
       </c>
       <c r="F19">
-        <v>25.27536149067657</v>
+        <v>20.59836097040587</v>
       </c>
       <c r="G19">
-        <v>2.087430080586693</v>
+        <v>20.66772794204233</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.204391064455431</v>
       </c>
       <c r="J19">
-        <v>6.764409506540722</v>
+        <v>8.472759943844926</v>
       </c>
       <c r="K19">
-        <v>13.82945019410924</v>
+        <v>12.06168401845323</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.637049823299265</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.07954263061114</v>
       </c>
       <c r="N19">
-        <v>11.99799054544999</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.16861642113316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.74105680234895</v>
+      </c>
+      <c r="Q19">
+        <v>13.63655501727509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.32527923026586</v>
+        <v>15.33197483590299</v>
       </c>
       <c r="C20">
-        <v>8.491865364362685</v>
+        <v>8.606170656047505</v>
       </c>
       <c r="D20">
-        <v>8.705119679966549</v>
+        <v>10.00644712184657</v>
       </c>
       <c r="E20">
-        <v>12.62708045129507</v>
+        <v>14.10844430283302</v>
       </c>
       <c r="F20">
-        <v>25.4688902303547</v>
+        <v>22.21989865336232</v>
       </c>
       <c r="G20">
-        <v>2.085572896039936</v>
+        <v>22.22932481579907</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.310966333661229</v>
       </c>
       <c r="J20">
-        <v>6.814501961303715</v>
+        <v>8.682783816739054</v>
       </c>
       <c r="K20">
-        <v>14.08476633662947</v>
+        <v>12.36377039826533</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.764168881933024</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.54920491059901</v>
       </c>
       <c r="N20">
-        <v>11.91746938730264</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.21706358496472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.6319006083742</v>
+      </c>
+      <c r="Q20">
+        <v>14.22786541833151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.33971462590888</v>
+        <v>16.24011811435962</v>
       </c>
       <c r="C21">
-        <v>8.958127634483997</v>
+        <v>9.098923049488398</v>
       </c>
       <c r="D21">
-        <v>9.158289520829223</v>
+        <v>10.57782061410012</v>
       </c>
       <c r="E21">
-        <v>13.24200645517138</v>
+        <v>14.95142543113032</v>
       </c>
       <c r="F21">
-        <v>26.13813456830043</v>
+        <v>22.88084317283142</v>
       </c>
       <c r="G21">
-        <v>2.079422734134459</v>
+        <v>22.86052108502102</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.56283450605888</v>
       </c>
       <c r="J21">
-        <v>6.985204739337529</v>
+        <v>8.686020604176434</v>
       </c>
       <c r="K21">
-        <v>14.91331632622951</v>
+        <v>12.28681837417909</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.086380662324972</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.30081507872516</v>
       </c>
       <c r="N21">
-        <v>11.64915746617488</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.39966865824475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.46545075641873</v>
+      </c>
+      <c r="Q21">
+        <v>14.36759175073596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.97543073868238</v>
+        <v>16.79866242018153</v>
       </c>
       <c r="C22">
-        <v>9.251168320033038</v>
+        <v>9.391769757799528</v>
       </c>
       <c r="D22">
-        <v>9.446059686226778</v>
+        <v>10.8877524845304</v>
       </c>
       <c r="E22">
-        <v>13.63573840319226</v>
+        <v>15.36802739631691</v>
       </c>
       <c r="F22">
-        <v>26.58952037223599</v>
+        <v>23.24565576717541</v>
       </c>
       <c r="G22">
-        <v>2.075466332253727</v>
+        <v>23.21642468123412</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.716576274150829</v>
       </c>
       <c r="J22">
-        <v>7.098470439853218</v>
+        <v>8.68145209662479</v>
       </c>
       <c r="K22">
-        <v>15.43317094448952</v>
+        <v>12.22756194259884</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.238117162346926</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.76070138965058</v>
       </c>
       <c r="N22">
-        <v>11.47529106788003</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.5343114862102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.36118470501087</v>
+      </c>
+      <c r="Q22">
+        <v>14.43956924567274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.63861347129208</v>
+        <v>16.50287169904389</v>
       </c>
       <c r="C23">
-        <v>9.095834014960282</v>
+        <v>9.236610391802827</v>
       </c>
       <c r="D23">
-        <v>9.29325110709263</v>
+        <v>10.72335647700522</v>
       </c>
       <c r="E23">
-        <v>13.42636282924326</v>
+        <v>15.14701520783682</v>
       </c>
       <c r="F23">
-        <v>26.34733771080798</v>
+        <v>23.05065574227926</v>
       </c>
       <c r="G23">
-        <v>2.077572417318451</v>
+        <v>23.02544281588627</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.634843086691046</v>
       </c>
       <c r="J23">
-        <v>7.037868000094607</v>
+        <v>8.683529488999232</v>
       </c>
       <c r="K23">
-        <v>15.15768417497046</v>
+        <v>12.25846680921687</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.157480669107565</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.51704933125087</v>
       </c>
       <c r="N23">
-        <v>11.56796167969633</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.46101736133821</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.41667117111179</v>
+      </c>
+      <c r="Q23">
+        <v>14.40038479315691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.30823406554236</v>
+        <v>15.33163363100743</v>
       </c>
       <c r="C24">
-        <v>8.484046800539373</v>
+        <v>8.623992231455638</v>
       </c>
       <c r="D24">
-        <v>8.697573760257853</v>
+        <v>10.07851406823198</v>
       </c>
       <c r="E24">
-        <v>12.6168970812272</v>
+        <v>14.28085981911474</v>
       </c>
       <c r="F24">
-        <v>25.4581905749608</v>
+        <v>22.31894476507625</v>
       </c>
       <c r="G24">
-        <v>2.08567453685947</v>
+        <v>22.32493907260665</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.318125204580546</v>
       </c>
       <c r="J24">
-        <v>6.811741868199261</v>
+        <v>8.699166361592638</v>
       </c>
       <c r="K24">
-        <v>14.07085613984058</v>
+        <v>12.39093582652468</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.844554487870102</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.5547825973581</v>
       </c>
       <c r="N24">
-        <v>11.92188242435082</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.21432985489339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.63040264239871</v>
+      </c>
+      <c r="Q24">
+        <v>14.26860275814925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.75419347630309</v>
+        <v>13.95866444391705</v>
       </c>
       <c r="C25">
-        <v>7.773839164215763</v>
+        <v>7.91017578430378</v>
       </c>
       <c r="D25">
-        <v>8.020393357906924</v>
+        <v>9.33700907997183</v>
       </c>
       <c r="E25">
-        <v>11.71127115562867</v>
+        <v>13.28626971852951</v>
       </c>
       <c r="F25">
-        <v>24.56031322891021</v>
+        <v>21.54681689004644</v>
       </c>
       <c r="G25">
-        <v>2.09470885195599</v>
+        <v>21.61918329109308</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.960571506029147</v>
       </c>
       <c r="J25">
-        <v>6.575708512329975</v>
+        <v>8.73163541628888</v>
       </c>
       <c r="K25">
-        <v>12.80453398168818</v>
+        <v>12.56416901914538</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.491773995640111</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.43284198311964</v>
       </c>
       <c r="N25">
-        <v>12.31111984506822</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.01049321452809</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.8687408715053</v>
+      </c>
+      <c r="Q25">
+        <v>14.16022781975301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.85278532022613</v>
+        <v>12.71092897616336</v>
       </c>
       <c r="C2">
-        <v>7.339552173366563</v>
+        <v>7.607536212101246</v>
       </c>
       <c r="D2">
-        <v>8.753494253210681</v>
+        <v>8.818854095462459</v>
       </c>
       <c r="E2">
-        <v>12.5044817681277</v>
+        <v>12.53691115931208</v>
       </c>
       <c r="F2">
-        <v>20.99557687819891</v>
+        <v>20.74791421589333</v>
       </c>
       <c r="G2">
-        <v>21.14309496319853</v>
+        <v>20.07522553774826</v>
       </c>
       <c r="H2">
-        <v>1.682971236282172</v>
+        <v>1.688507973395266</v>
       </c>
       <c r="J2">
-        <v>8.767991931896979</v>
+        <v>9.124741807754527</v>
       </c>
       <c r="K2">
-        <v>12.7154043705408</v>
+        <v>12.43225181297904</v>
       </c>
       <c r="L2">
-        <v>7.219863069914066</v>
+        <v>11.14226667777922</v>
       </c>
       <c r="M2">
-        <v>11.53513202387441</v>
+        <v>7.25791361620113</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.216831148735553</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.53830663284092</v>
       </c>
       <c r="P2">
-        <v>12.05111702282923</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.10759870430419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.02126617696567</v>
+      </c>
+      <c r="S2">
+        <v>13.91891168693447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.04387123878968</v>
+        <v>11.94904083757459</v>
       </c>
       <c r="C3">
-        <v>6.92524375461515</v>
+        <v>7.098061350624856</v>
       </c>
       <c r="D3">
-        <v>8.336000838669559</v>
+        <v>8.395503888341972</v>
       </c>
       <c r="E3">
-        <v>11.94546344720423</v>
+        <v>11.98067842797099</v>
       </c>
       <c r="F3">
-        <v>20.63406556800305</v>
+        <v>20.41582396783393</v>
       </c>
       <c r="G3">
-        <v>20.84772624353464</v>
+        <v>19.84729277594388</v>
       </c>
       <c r="H3">
-        <v>1.637391399502129</v>
+        <v>1.623492666162775</v>
       </c>
       <c r="J3">
-        <v>8.799927777186317</v>
+        <v>9.131507468131158</v>
       </c>
       <c r="K3">
-        <v>12.83155726142319</v>
+        <v>12.55646995281945</v>
       </c>
       <c r="L3">
-        <v>7.028576315391385</v>
+        <v>11.31070480855703</v>
       </c>
       <c r="M3">
-        <v>10.88268267073828</v>
+        <v>7.292554229907172</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.030385275475237</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.88773643447312</v>
       </c>
       <c r="P3">
-        <v>12.17910898806269</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.08787963851351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.13404772575728</v>
+      </c>
+      <c r="S3">
+        <v>13.9142988689297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5178636633464</v>
+        <v>11.45380959202977</v>
       </c>
       <c r="C4">
-        <v>6.657508025438719</v>
+        <v>6.767794596845008</v>
       </c>
       <c r="D4">
-        <v>8.069392920249856</v>
+        <v>8.125409007774993</v>
       </c>
       <c r="E4">
-        <v>11.58854969354807</v>
+        <v>11.62580289181237</v>
       </c>
       <c r="F4">
-        <v>20.418471017961</v>
+        <v>20.21728130005987</v>
       </c>
       <c r="G4">
-        <v>20.67977592050512</v>
+        <v>19.72196737719716</v>
       </c>
       <c r="H4">
-        <v>1.76635506594466</v>
+        <v>1.747261023053275</v>
       </c>
       <c r="J4">
-        <v>8.822985035145818</v>
+        <v>9.13744398379024</v>
       </c>
       <c r="K4">
-        <v>12.90926940559161</v>
+        <v>12.63771675701511</v>
       </c>
       <c r="L4">
-        <v>6.907890536772367</v>
+        <v>11.41908736323859</v>
       </c>
       <c r="M4">
-        <v>10.46067581443474</v>
+        <v>7.336036021768214</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.912815214630026</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.46695218718003</v>
       </c>
       <c r="P4">
-        <v>12.25989609312864</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.08329384993662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.20562627615953</v>
+      </c>
+      <c r="S4">
+        <v>13.91783050009112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.29614451464982</v>
+        <v>11.24512146628622</v>
       </c>
       <c r="C5">
-        <v>6.545099072366586</v>
+        <v>6.628866646864397</v>
       </c>
       <c r="D5">
-        <v>7.958276573554186</v>
+        <v>8.012909329126131</v>
       </c>
       <c r="E5">
-        <v>11.43979657829107</v>
+        <v>11.47796949815748</v>
       </c>
       <c r="F5">
-        <v>20.33227937184346</v>
+        <v>20.13776795665531</v>
       </c>
       <c r="G5">
-        <v>20.6146897371484</v>
+        <v>19.67450236299828</v>
       </c>
       <c r="H5">
-        <v>1.820123060905665</v>
+        <v>1.798874205578283</v>
       </c>
       <c r="J5">
-        <v>8.833226412381306</v>
+        <v>9.140303009991522</v>
       </c>
       <c r="K5">
-        <v>12.9424969271015</v>
+        <v>12.67204349696897</v>
       </c>
       <c r="L5">
-        <v>6.857933807921334</v>
+        <v>11.46451281204256</v>
       </c>
       <c r="M5">
-        <v>10.28339158215191</v>
+        <v>7.359212763131594</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.864163863070723</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.29018815487109</v>
       </c>
       <c r="P5">
-        <v>12.29337505543445</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.08326439864712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.23538226467558</v>
+      </c>
+      <c r="S5">
+        <v>13.92082195137633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.25888372066482</v>
+        <v>11.21005436964779</v>
       </c>
       <c r="C6">
-        <v>6.526235852137057</v>
+        <v>6.605537185912307</v>
       </c>
       <c r="D6">
-        <v>7.939680088166148</v>
+        <v>7.994085741430089</v>
       </c>
       <c r="E6">
-        <v>11.414900673336</v>
+        <v>11.45323189998055</v>
       </c>
       <c r="F6">
-        <v>20.3180695947291</v>
+        <v>20.1246503216931</v>
       </c>
       <c r="G6">
-        <v>20.60408415198583</v>
+        <v>19.66683630227639</v>
       </c>
       <c r="H6">
-        <v>1.829124932598628</v>
+        <v>1.807515962355893</v>
       </c>
       <c r="J6">
-        <v>8.834977416076121</v>
+        <v>9.140804073796758</v>
       </c>
       <c r="K6">
-        <v>12.94810713186541</v>
+        <v>12.67781605593853</v>
       </c>
       <c r="L6">
-        <v>6.849592787249685</v>
+        <v>11.47213202149326</v>
       </c>
       <c r="M6">
-        <v>10.25363513094258</v>
+        <v>7.363386522118384</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.856041741297885</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.26051955851985</v>
       </c>
       <c r="P6">
-        <v>12.29896801922877</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.08336905329002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.24035872593695</v>
+      </c>
+      <c r="S6">
+        <v>13.92141102693377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.514903291187</v>
+        <v>11.44841500749296</v>
       </c>
       <c r="C7">
-        <v>6.656005340250394</v>
+        <v>6.759312567690847</v>
       </c>
       <c r="D7">
-        <v>8.067904214690401</v>
+        <v>8.126809632176313</v>
       </c>
       <c r="E7">
-        <v>11.58655676274852</v>
+        <v>11.62478404268638</v>
       </c>
       <c r="F7">
-        <v>20.41730178752575</v>
+        <v>20.20544219615138</v>
       </c>
       <c r="G7">
-        <v>20.67888459151799</v>
+        <v>19.80217363635064</v>
       </c>
       <c r="H7">
-        <v>1.76707526532355</v>
+        <v>1.748426298593184</v>
       </c>
       <c r="J7">
-        <v>8.823119759501447</v>
+        <v>9.105535227675285</v>
       </c>
       <c r="K7">
-        <v>12.90971127274184</v>
+        <v>12.63406439030124</v>
       </c>
       <c r="L7">
-        <v>6.907219894845401</v>
+        <v>11.41573276657955</v>
       </c>
       <c r="M7">
-        <v>10.45830630612969</v>
+        <v>7.334147537852691</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.911666010614105</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.46086113967766</v>
       </c>
       <c r="P7">
-        <v>12.26034533858356</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.08328607511272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.20636641077112</v>
+      </c>
+      <c r="S7">
+        <v>13.91054440444592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.57996188341725</v>
+        <v>12.44590822444132</v>
       </c>
       <c r="C8">
-        <v>7.199496584476083</v>
+        <v>7.415048439157132</v>
       </c>
       <c r="D8">
-        <v>8.611733489248612</v>
+        <v>8.684209323472837</v>
       </c>
       <c r="E8">
-        <v>12.31464248610083</v>
+        <v>12.3510724007591</v>
       </c>
       <c r="F8">
-        <v>20.86964294607736</v>
+        <v>20.59736230037026</v>
       </c>
       <c r="G8">
-        <v>21.03846267539319</v>
+        <v>20.25949719662274</v>
       </c>
       <c r="H8">
-        <v>1.61587300772066</v>
+        <v>1.622725704713775</v>
       </c>
       <c r="J8">
-        <v>8.778274383390418</v>
+        <v>9.022556907423748</v>
       </c>
       <c r="K8">
-        <v>12.75409683071298</v>
+        <v>12.46047862575793</v>
       </c>
       <c r="L8">
-        <v>7.154600187561131</v>
+        <v>11.18753065828376</v>
       </c>
       <c r="M8">
-        <v>11.31464471547879</v>
+        <v>7.256150527677592</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.151662430227755</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.30688821934082</v>
       </c>
       <c r="P8">
-        <v>12.09479483022967</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.09920739787636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.06111104816957</v>
+      </c>
+      <c r="S8">
+        <v>13.89181657375859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.43586418733292</v>
+        <v>14.193528925557</v>
       </c>
       <c r="C9">
-        <v>8.157672043220742</v>
+        <v>8.585541306377388</v>
       </c>
       <c r="D9">
-        <v>9.592772029876977</v>
+        <v>9.681574158280352</v>
       </c>
       <c r="E9">
-        <v>13.62917044181827</v>
+        <v>13.66081539217862</v>
       </c>
       <c r="F9">
-        <v>21.80439876573489</v>
+        <v>21.44601359275397</v>
       </c>
       <c r="G9">
-        <v>21.85018626311098</v>
+        <v>20.97408962656644</v>
       </c>
       <c r="H9">
-        <v>2.083199084416708</v>
+        <v>2.070545438592684</v>
       </c>
       <c r="J9">
-        <v>8.718700481924651</v>
+        <v>8.98782437675151</v>
       </c>
       <c r="K9">
-        <v>12.50198065768966</v>
+        <v>12.17605478575431</v>
       </c>
       <c r="L9">
-        <v>7.612566989930607</v>
+        <v>10.79342790578743</v>
       </c>
       <c r="M9">
-        <v>12.82195351684349</v>
+        <v>7.291173357866453</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.598109924705302</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.80805027323089</v>
       </c>
       <c r="P9">
-        <v>11.78739875180522</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.19238487459504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.79352548980734</v>
+      </c>
+      <c r="S9">
+        <v>13.93446046601419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.63955969844664</v>
+        <v>15.31750201416115</v>
       </c>
       <c r="C10">
-        <v>8.762013833599367</v>
+        <v>9.290324833795246</v>
       </c>
       <c r="D10">
-        <v>10.15566633854209</v>
+        <v>10.26910370719375</v>
       </c>
       <c r="E10">
-        <v>14.28858577824618</v>
+        <v>14.32215073073561</v>
       </c>
       <c r="F10">
-        <v>22.37860219495109</v>
+        <v>21.90146520649271</v>
       </c>
       <c r="G10">
-        <v>22.37849797526517</v>
+        <v>21.88818979957423</v>
       </c>
       <c r="H10">
-        <v>2.392841896761287</v>
+        <v>2.364767971315091</v>
       </c>
       <c r="J10">
-        <v>8.672964791243194</v>
+        <v>8.780142314926694</v>
       </c>
       <c r="K10">
-        <v>12.31984938180616</v>
+        <v>11.94294302182862</v>
       </c>
       <c r="L10">
-        <v>7.823545378518213</v>
+        <v>10.49264668008191</v>
       </c>
       <c r="M10">
-        <v>13.79994720456503</v>
+        <v>7.381237404210027</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.799283518818473</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.76448311512094</v>
       </c>
       <c r="P10">
-        <v>11.5773102979943</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.24755494384063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.6181741854642</v>
+      </c>
+      <c r="S10">
+        <v>13.90903015821917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.99895713092504</v>
+        <v>15.64905377142437</v>
       </c>
       <c r="C11">
-        <v>8.746212473440904</v>
+        <v>9.209553578561815</v>
       </c>
       <c r="D11">
-        <v>9.529383794602891</v>
+        <v>9.667952377245518</v>
       </c>
       <c r="E11">
-        <v>12.61050011335015</v>
+        <v>12.6470268006988</v>
       </c>
       <c r="F11">
-        <v>21.4528003348292</v>
+        <v>20.87021917401072</v>
       </c>
       <c r="G11">
-        <v>21.48038719328494</v>
+        <v>21.96889092425682</v>
       </c>
       <c r="H11">
-        <v>3.153590586816724</v>
+        <v>3.126809841355572</v>
       </c>
       <c r="J11">
-        <v>8.475710960489208</v>
+        <v>8.288947527904257</v>
       </c>
       <c r="K11">
-        <v>11.96144991372309</v>
+        <v>11.56442736102152</v>
       </c>
       <c r="L11">
-        <v>7.044755202667939</v>
+        <v>10.18686021185072</v>
       </c>
       <c r="M11">
-        <v>14.02900412282638</v>
+        <v>7.174505295822548</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.014862828864854</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.95478798218355</v>
       </c>
       <c r="P11">
-        <v>11.53873389400485</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.81058903660436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.6105052130296</v>
+      </c>
+      <c r="S11">
+        <v>13.40024039120145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.05719456798934</v>
+        <v>15.70713999267293</v>
       </c>
       <c r="C12">
-        <v>8.609483891420695</v>
+        <v>9.015626472224827</v>
       </c>
       <c r="D12">
-        <v>8.878319155378504</v>
+        <v>9.023736012469584</v>
       </c>
       <c r="E12">
-        <v>11.09566481277358</v>
+        <v>11.12883730325196</v>
       </c>
       <c r="F12">
-        <v>20.5350128181024</v>
+        <v>19.92752817016146</v>
       </c>
       <c r="G12">
-        <v>20.58805702624257</v>
+        <v>21.54197627866576</v>
       </c>
       <c r="H12">
-        <v>4.331808743544851</v>
+        <v>4.311599940730481</v>
       </c>
       <c r="J12">
-        <v>8.315047342479682</v>
+        <v>8.047537757315752</v>
       </c>
       <c r="K12">
-        <v>11.69338992410719</v>
+        <v>11.30889063859795</v>
       </c>
       <c r="L12">
-        <v>6.427078581300639</v>
+        <v>10.0094349183559</v>
       </c>
       <c r="M12">
-        <v>14.02292155606713</v>
+        <v>6.980676816194515</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.39639940891765</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.93068982542145</v>
       </c>
       <c r="P12">
-        <v>11.5574871729431</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.4208064168107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.64644264320112</v>
+      </c>
+      <c r="S12">
+        <v>12.99633072898295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.88962884210034</v>
+        <v>15.56575427111271</v>
       </c>
       <c r="C13">
-        <v>8.367949048739055</v>
+        <v>8.730230428932778</v>
       </c>
       <c r="D13">
-        <v>8.152975186546776</v>
+        <v>8.285900417441706</v>
       </c>
       <c r="E13">
-        <v>9.608989886519495</v>
+        <v>9.632026873562943</v>
       </c>
       <c r="F13">
-        <v>19.55773134925186</v>
+        <v>19.00807263125872</v>
       </c>
       <c r="G13">
-        <v>19.63337410186657</v>
+        <v>20.48666308658038</v>
       </c>
       <c r="H13">
-        <v>5.609599933281324</v>
+        <v>5.595511360876035</v>
       </c>
       <c r="J13">
-        <v>8.172852259413842</v>
+        <v>7.990520796411642</v>
       </c>
       <c r="K13">
-        <v>11.47957353046286</v>
+        <v>11.13971666133792</v>
       </c>
       <c r="L13">
-        <v>5.916284620291929</v>
+        <v>9.912389840045376</v>
       </c>
       <c r="M13">
-        <v>13.83588170231027</v>
+        <v>6.797347984344347</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.889341936603628</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.74735099474914</v>
       </c>
       <c r="P13">
-        <v>11.61811368663849</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.04238494032002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.70923862728975</v>
+      </c>
+      <c r="S13">
+        <v>12.66253191283679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.66793940385331</v>
+        <v>15.37446485877748</v>
       </c>
       <c r="C14">
-        <v>8.148788307166607</v>
+        <v>8.484968036749548</v>
       </c>
       <c r="D14">
-        <v>7.605105516132527</v>
+        <v>7.720872295933669</v>
       </c>
       <c r="E14">
-        <v>8.606821590854276</v>
+        <v>8.620157442933143</v>
       </c>
       <c r="F14">
-        <v>18.84615543712238</v>
+        <v>18.37153595599639</v>
       </c>
       <c r="G14">
-        <v>18.93537434305441</v>
+        <v>19.47529382570509</v>
       </c>
       <c r="H14">
-        <v>6.537460770462679</v>
+        <v>6.526976589089895</v>
       </c>
       <c r="J14">
-        <v>8.082487858074149</v>
+        <v>8.018945225372928</v>
       </c>
       <c r="K14">
-        <v>11.35666106231347</v>
+        <v>11.05952402526906</v>
       </c>
       <c r="L14">
-        <v>5.639355643194665</v>
+        <v>9.876482495198616</v>
       </c>
       <c r="M14">
-        <v>13.62090896320123</v>
+        <v>6.677001264358776</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.616942710394143</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.54450480799837</v>
       </c>
       <c r="P14">
-        <v>11.67894923437834</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.78426093505894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.76378586702437</v>
+      </c>
+      <c r="S14">
+        <v>12.45919197046623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.56469261658202</v>
+        <v>15.28401487837326</v>
       </c>
       <c r="C15">
-        <v>8.072067174610115</v>
+        <v>8.403533759405187</v>
       </c>
       <c r="D15">
-        <v>7.454989089289884</v>
+        <v>7.563134059104685</v>
       </c>
       <c r="E15">
-        <v>8.365111926795377</v>
+        <v>8.375652742440847</v>
       </c>
       <c r="F15">
-        <v>18.66253693068099</v>
+        <v>18.2204882857228</v>
       </c>
       <c r="G15">
-        <v>18.75528853187637</v>
+        <v>19.11795117058145</v>
       </c>
       <c r="H15">
-        <v>6.749119114298541</v>
+        <v>6.739690916225105</v>
       </c>
       <c r="J15">
-        <v>8.065134813616185</v>
+        <v>8.056279162264692</v>
       </c>
       <c r="K15">
-        <v>11.33923850206792</v>
+        <v>11.05714589760879</v>
       </c>
       <c r="L15">
-        <v>5.583698475375046</v>
+        <v>9.881786739733352</v>
       </c>
       <c r="M15">
-        <v>13.52895313562787</v>
+        <v>6.651684023651212</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.563081499529724</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.45963845702633</v>
       </c>
       <c r="P15">
-        <v>11.70130641843353</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.725552808588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.78124211181998</v>
+      </c>
+      <c r="S15">
+        <v>12.42353894116703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.09517139888623</v>
+        <v>14.86185738292457</v>
       </c>
       <c r="C16">
-        <v>7.855797642421036</v>
+        <v>8.196367616414525</v>
       </c>
       <c r="D16">
-        <v>7.322849008386554</v>
+        <v>7.402786301180369</v>
       </c>
       <c r="E16">
-        <v>8.314637829409202</v>
+        <v>8.323387464666292</v>
       </c>
       <c r="F16">
-        <v>18.59354164597961</v>
+        <v>18.27070047569628</v>
       </c>
       <c r="G16">
-        <v>18.69520174530233</v>
+        <v>18.2405372958275</v>
       </c>
       <c r="H16">
-        <v>6.482229146284739</v>
+        <v>6.475775807213828</v>
       </c>
       <c r="J16">
-        <v>8.113326873163301</v>
+        <v>8.339576762704985</v>
       </c>
       <c r="K16">
-        <v>11.46159707767311</v>
+        <v>11.21881165851672</v>
       </c>
       <c r="L16">
-        <v>5.583662976748246</v>
+        <v>10.01920023440545</v>
       </c>
       <c r="M16">
-        <v>13.15342739716441</v>
+        <v>6.688511472161708</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.569043669869809</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.11873102844529</v>
       </c>
       <c r="P16">
-        <v>11.76980714824833</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.77568611271744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.82174077045985</v>
+      </c>
+      <c r="S16">
+        <v>12.5549079583529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.85079770410171</v>
+        <v>14.63434380385061</v>
       </c>
       <c r="C17">
-        <v>7.808526635662218</v>
+        <v>8.163023960204113</v>
       </c>
       <c r="D17">
-        <v>7.522604773943751</v>
+        <v>7.593254602620735</v>
       </c>
       <c r="E17">
-        <v>8.803748253222038</v>
+        <v>8.815600001510436</v>
       </c>
       <c r="F17">
-        <v>18.92440070332809</v>
+        <v>18.64103458221903</v>
       </c>
       <c r="G17">
-        <v>19.02809360760694</v>
+        <v>18.22857149135848</v>
       </c>
       <c r="H17">
-        <v>5.736052866003485</v>
+        <v>5.730487009335985</v>
       </c>
       <c r="J17">
-        <v>8.198497698957494</v>
+        <v>8.526715737007397</v>
       </c>
       <c r="K17">
-        <v>11.62033242183685</v>
+        <v>11.38229660377852</v>
       </c>
       <c r="L17">
-        <v>5.715940579316571</v>
+        <v>10.14901369874004</v>
       </c>
       <c r="M17">
-        <v>12.97904348633331</v>
+        <v>6.774225430905617</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.70347951331806</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.95999016217222</v>
       </c>
       <c r="P17">
-        <v>11.79162745649129</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.95224873451396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.82884769176615</v>
+      </c>
+      <c r="S17">
+        <v>12.75673850213294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.77989926710555</v>
+        <v>14.55963916462137</v>
       </c>
       <c r="C18">
-        <v>7.905787384555009</v>
+        <v>8.291512195731061</v>
       </c>
       <c r="D18">
-        <v>8.034826816999294</v>
+        <v>8.106030538559189</v>
       </c>
       <c r="E18">
-        <v>9.89225380007853</v>
+        <v>9.909045502861327</v>
       </c>
       <c r="F18">
-        <v>19.63478188481433</v>
+        <v>19.34883855274103</v>
       </c>
       <c r="G18">
-        <v>19.72851684324559</v>
+        <v>18.76875906082235</v>
       </c>
       <c r="H18">
-        <v>4.531894409889872</v>
+        <v>4.525476867838009</v>
       </c>
       <c r="J18">
-        <v>8.323960575601207</v>
+        <v>8.688922746500365</v>
       </c>
       <c r="K18">
-        <v>11.82777515959903</v>
+        <v>11.57415363968715</v>
       </c>
       <c r="L18">
-        <v>6.05715075533475</v>
+        <v>10.29358288115377</v>
       </c>
       <c r="M18">
-        <v>12.96400544152422</v>
+        <v>6.911705036383059</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.044522273758997</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.95207770152985</v>
       </c>
       <c r="P18">
-        <v>11.77837517002718</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.25472309423891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.80739467798481</v>
+      </c>
+      <c r="S18">
+        <v>13.05529412626675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.85537589077186</v>
+        <v>14.61684487188924</v>
       </c>
       <c r="C19">
-        <v>8.112511048166816</v>
+        <v>8.54525688387691</v>
       </c>
       <c r="D19">
-        <v>8.757456558995012</v>
+        <v>8.83478893981597</v>
       </c>
       <c r="E19">
-        <v>11.45143496286084</v>
+        <v>11.47330067259084</v>
       </c>
       <c r="F19">
-        <v>20.59836097040587</v>
+        <v>20.28477158903191</v>
       </c>
       <c r="G19">
-        <v>20.66772794204233</v>
+        <v>19.63714169895477</v>
       </c>
       <c r="H19">
-        <v>3.204391064455431</v>
+        <v>3.194421006449933</v>
       </c>
       <c r="J19">
-        <v>8.472759943844926</v>
+        <v>8.838577760779289</v>
       </c>
       <c r="K19">
-        <v>12.06168401845323</v>
+        <v>11.77981797350888</v>
       </c>
       <c r="L19">
-        <v>6.637049823299265</v>
+        <v>10.44231928270242</v>
       </c>
       <c r="M19">
-        <v>13.07954263061114</v>
+        <v>7.083436124582514</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.622736596704695</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.06994900828781</v>
       </c>
       <c r="P19">
-        <v>11.74105680234895</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.63655501727509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.7658414644817</v>
+      </c>
+      <c r="S19">
+        <v>13.41585652141543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.33197483590299</v>
+        <v>15.03765424050867</v>
       </c>
       <c r="C20">
-        <v>8.606170656047505</v>
+        <v>9.127369951805326</v>
       </c>
       <c r="D20">
-        <v>10.00644712184657</v>
+        <v>10.10486609986976</v>
       </c>
       <c r="E20">
-        <v>14.10844430283302</v>
+        <v>14.13839881561303</v>
       </c>
       <c r="F20">
-        <v>22.21989865336232</v>
+        <v>21.80956127443783</v>
       </c>
       <c r="G20">
-        <v>22.22932481579907</v>
+        <v>21.36321882743573</v>
       </c>
       <c r="H20">
-        <v>2.310966333661229</v>
+        <v>2.288167089513088</v>
       </c>
       <c r="J20">
-        <v>8.682783816739054</v>
+        <v>8.939304788944309</v>
       </c>
       <c r="K20">
-        <v>12.36377039826533</v>
+        <v>12.01554858669949</v>
       </c>
       <c r="L20">
-        <v>7.764168881933024</v>
+        <v>10.57835627943255</v>
       </c>
       <c r="M20">
-        <v>13.54920491059901</v>
+        <v>7.3630037064445</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.743865279368774</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.52991296352867</v>
       </c>
       <c r="P20">
-        <v>11.6319006083742</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.22786541833151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.66115155129112</v>
+      </c>
+      <c r="S20">
+        <v>13.93664392538674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.24011811435962</v>
+        <v>15.84577851262786</v>
       </c>
       <c r="C21">
-        <v>9.098923049488398</v>
+        <v>9.607944090439666</v>
       </c>
       <c r="D21">
-        <v>10.57782061410012</v>
+        <v>10.74074280665553</v>
       </c>
       <c r="E21">
-        <v>14.95142543113032</v>
+        <v>15.00010451537211</v>
       </c>
       <c r="F21">
-        <v>22.88084317283142</v>
+        <v>22.18603685550987</v>
       </c>
       <c r="G21">
-        <v>22.86052108502102</v>
+        <v>23.73879414747164</v>
       </c>
       <c r="H21">
-        <v>2.56283450605888</v>
+        <v>2.521560151252835</v>
       </c>
       <c r="J21">
-        <v>8.686020604176434</v>
+        <v>8.301275924587111</v>
       </c>
       <c r="K21">
-        <v>12.28681837417909</v>
+        <v>11.81129876119962</v>
       </c>
       <c r="L21">
-        <v>8.086380662324972</v>
+        <v>10.33655328014707</v>
       </c>
       <c r="M21">
-        <v>14.30081507872516</v>
+        <v>7.431369797994475</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.051208466614383</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.21135881027647</v>
       </c>
       <c r="P21">
-        <v>11.46545075641873</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.36759175073596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.53422910111209</v>
+      </c>
+      <c r="S21">
+        <v>13.87060181371522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.79866242018153</v>
+        <v>16.34086123615024</v>
       </c>
       <c r="C22">
-        <v>9.391769757799528</v>
+        <v>9.883090613375071</v>
       </c>
       <c r="D22">
-        <v>10.8877524845304</v>
+        <v>11.09443504913886</v>
       </c>
       <c r="E22">
-        <v>15.36802739631691</v>
+        <v>15.43008922609198</v>
       </c>
       <c r="F22">
-        <v>23.24565576717541</v>
+        <v>22.35415076087436</v>
       </c>
       <c r="G22">
-        <v>23.21642468123412</v>
+        <v>25.35386740848504</v>
       </c>
       <c r="H22">
-        <v>2.716576274150829</v>
+        <v>2.663710754601722</v>
       </c>
       <c r="J22">
-        <v>8.68145209662479</v>
+        <v>7.914897228210773</v>
       </c>
       <c r="K22">
-        <v>12.22756194259884</v>
+        <v>11.66160375084229</v>
       </c>
       <c r="L22">
-        <v>8.238117162346926</v>
+        <v>10.17311465452599</v>
       </c>
       <c r="M22">
-        <v>14.76070138965058</v>
+        <v>7.471572022131689</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.193359918883703</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.6235694575464</v>
       </c>
       <c r="P22">
-        <v>11.36118470501087</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.43956924567274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.45908413012061</v>
+      </c>
+      <c r="S22">
+        <v>13.7968103552958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.50287169904389</v>
+        <v>16.08373133902381</v>
       </c>
       <c r="C23">
-        <v>9.236610391802827</v>
+        <v>9.750332130069323</v>
       </c>
       <c r="D23">
-        <v>10.72335647700522</v>
+        <v>10.90058510946938</v>
       </c>
       <c r="E23">
-        <v>15.14701520783682</v>
+        <v>15.19960383172738</v>
       </c>
       <c r="F23">
-        <v>23.05065574227926</v>
+        <v>22.28999702626947</v>
       </c>
       <c r="G23">
-        <v>23.02544281588627</v>
+        <v>24.28487595077139</v>
       </c>
       <c r="H23">
-        <v>2.634843086691046</v>
+        <v>2.588890820756973</v>
       </c>
       <c r="J23">
-        <v>8.683529488999232</v>
+        <v>8.171957525297694</v>
       </c>
       <c r="K23">
-        <v>12.25846680921687</v>
+        <v>11.75207759288234</v>
       </c>
       <c r="L23">
-        <v>8.157480669107565</v>
+        <v>10.26616585299114</v>
       </c>
       <c r="M23">
-        <v>14.51704933125087</v>
+        <v>7.459429253467014</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.118761005590246</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.41259166448977</v>
       </c>
       <c r="P23">
-        <v>11.41667117111179</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.40038479315691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.49691593418721</v>
+      </c>
+      <c r="S23">
+        <v>13.85481290383155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.33163363100743</v>
+        <v>15.0361487942167</v>
       </c>
       <c r="C24">
-        <v>8.623992231455638</v>
+        <v>9.149854793250199</v>
       </c>
       <c r="D24">
-        <v>10.07851406823198</v>
+        <v>10.17710740011287</v>
       </c>
       <c r="E24">
-        <v>14.28085981911474</v>
+        <v>14.3110930611854</v>
       </c>
       <c r="F24">
-        <v>22.31894476507625</v>
+        <v>21.90754757788319</v>
       </c>
       <c r="G24">
-        <v>22.32493907260665</v>
+        <v>21.44069136528796</v>
       </c>
       <c r="H24">
-        <v>2.318125204580546</v>
+        <v>2.295277371064243</v>
       </c>
       <c r="J24">
-        <v>8.699166361592638</v>
+        <v>8.959843857480816</v>
       </c>
       <c r="K24">
-        <v>12.39093582652468</v>
+        <v>12.04030662599284</v>
       </c>
       <c r="L24">
-        <v>7.844554487870102</v>
+        <v>10.59728616353039</v>
       </c>
       <c r="M24">
-        <v>13.5547825973581</v>
+        <v>7.381454137812556</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.824219954049235</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.53615921005504</v>
       </c>
       <c r="P24">
-        <v>11.63040264239871</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.26860275814925</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.65870608817731</v>
+      </c>
+      <c r="S24">
+        <v>13.9763557142227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.95866444391705</v>
+        <v>13.74724891876468</v>
       </c>
       <c r="C25">
-        <v>7.91017578430378</v>
+        <v>8.292013806605405</v>
       </c>
       <c r="D25">
-        <v>9.33700907997183</v>
+        <v>9.417743030437405</v>
       </c>
       <c r="E25">
-        <v>13.28626971852951</v>
+        <v>13.3177281173673</v>
       </c>
       <c r="F25">
-        <v>21.54681689004644</v>
+        <v>21.22689459869677</v>
       </c>
       <c r="G25">
-        <v>21.61918329109308</v>
+        <v>20.65646107345199</v>
       </c>
       <c r="H25">
-        <v>1.960571506029147</v>
+        <v>1.953647238118329</v>
       </c>
       <c r="J25">
-        <v>8.73163541628888</v>
+        <v>9.039535779144876</v>
       </c>
       <c r="K25">
-        <v>12.56416901914538</v>
+        <v>12.25415941842718</v>
       </c>
       <c r="L25">
-        <v>7.491773995640111</v>
+        <v>10.90036899909994</v>
       </c>
       <c r="M25">
-        <v>12.43284198311964</v>
+        <v>7.266695907264677</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.480922772759911</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.42514161802334</v>
       </c>
       <c r="P25">
-        <v>11.8687408715053</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.16022781975301</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.86317175728328</v>
+      </c>
+      <c r="S25">
+        <v>13.92725197266839</v>
       </c>
     </row>
   </sheetData>
